--- a/Running projects/Lama Retails - Dolmen Mall Clifton Karachi/Bill for LAMA Outlet.xlsx
+++ b/Running projects/Lama Retails - Dolmen Mall Clifton Karachi/Bill for LAMA Outlet.xlsx
@@ -1,21 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" autoCompressPictures="0" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FFF22FB-ACB1-4F75-B3D2-FA2A0CDF89E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705CC0AB-71BF-43D0-98B9-D584F534A6B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="763" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="763" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="35" r:id="rId1"/>
     <sheet name="HVAC" sheetId="33" r:id="rId2"/>
     <sheet name="FF" sheetId="38" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+    <externalReference r:id="rId5"/>
+  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="2">FF!$A$1:$M$29</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="2">FF!$A$1:$M$38</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">HVAC!$A$1:$M$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$E$9</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Summary!$A$1:$E$10</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">FF!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">HVAC!$1:$6</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Summary!$6:$6</definedName>
@@ -30,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="97">
   <si>
     <t>UNIT</t>
   </si>
@@ -449,19 +453,46 @@
   <si>
     <t>Square Diffuser (T&amp;B Model: AM)</t>
   </si>
+  <si>
+    <t>Supply , Installation, Testing and commissioning of below mentioned fire fighting equipment UL/FM standards as indicated on the drawings, as per specifications, Equipment schedule and Engineers Approval including the cost of excavation, backfill, cutting, repairing, Fittings  as required to make the system operational.</t>
+  </si>
+  <si>
+    <t>SECTION - A
+FIRE PIPING</t>
+  </si>
+  <si>
+    <t>Supply &amp; installation of  seamless black  steel  SCH. 40 pipe as per ASTM A53 grade B by Lontrin, KSPM etc. with Heavy  Duty Welded fittings, Galvanized Supports and hangers, supports, painting and coding fire protection system of following sizes.</t>
+  </si>
+  <si>
+    <t>Dia 1"</t>
+  </si>
+  <si>
+    <t>Dia 1.5"</t>
+  </si>
+  <si>
+    <t>Modification Work</t>
+  </si>
+  <si>
+    <t>Supply &amp; Installation of Drain and Test Assembly of 1" to the nearest Drain Point as designated by DMC.
+Plugging of all additional Fire Sprinkler Points that will not be utilized.</t>
+  </si>
+  <si>
+    <t>Variarion Amount (02 Nos)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="5">
+  <numFmts count="6">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="#,##0;\-0;;@"/>
     <numFmt numFmtId="167" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="20" x14ac:knownFonts="1">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -591,6 +622,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Century Gothic"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -612,7 +649,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="22">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -869,6 +906,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -882,7 +939,7 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="242">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1203,6 +1260,81 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="6" fillId="0" borderId="2" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="20" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="15" fillId="0" borderId="1" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1236,6 +1368,39 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="16" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1272,23 +1437,95 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="21" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="13" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="167" fontId="15" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1310,86 +1547,35 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="3" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="1" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="11" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="12" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="7" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="16" fillId="0" borderId="8" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="16" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -1445,10 +1631,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1480,66 +1663,6 @@
     </xf>
     <xf numFmtId="2" fontId="6" fillId="0" borderId="10" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="4" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="21" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="5" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="7" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="13" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="167" fontId="15" fillId="0" borderId="8" xfId="9" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="10">
@@ -1570,6 +1693,50 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="28">
+          <cell r="J28">
+            <v>341850</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="28">
+          <cell r="J28">
+            <v>49718.75</v>
+          </cell>
+        </row>
+      </sheetData>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1862,10 +2029,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1900,13 +2067,13 @@
       </c>
     </row>
     <row r="5" spans="1:12" ht="43.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="112" t="s">
+      <c r="A5" s="137" t="s">
         <v>68</v>
       </c>
-      <c r="B5" s="112"/>
-      <c r="C5" s="112"/>
-      <c r="D5" s="112"/>
-      <c r="E5" s="112"/>
+      <c r="B5" s="137"/>
+      <c r="C5" s="137"/>
+      <c r="D5" s="137"/>
+      <c r="E5" s="137"/>
     </row>
     <row r="6" spans="1:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="14" t="s">
@@ -1927,22 +2094,22 @@
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B7" s="10" t="s">
         <v>70</v>
       </c>
       <c r="C7" s="45">
         <f>HVAC!J48</f>
-        <v>257648</v>
+        <v>346945.5</v>
       </c>
       <c r="D7" s="45">
         <f>HVAC!L48</f>
-        <v>88055.3</v>
+        <v>106764.8</v>
       </c>
       <c r="E7" s="45">
         <f>D7+C7</f>
-        <v>345703.3</v>
+        <v>453710.3</v>
       </c>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -1951,44 +2118,56 @@
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B8" s="10" t="s">
         <v>69</v>
       </c>
       <c r="C8" s="45">
-        <f>FF!J29</f>
-        <v>58000</v>
+        <f>FF!J38</f>
+        <v>319798.4375</v>
       </c>
       <c r="D8" s="45">
-        <f>FF!L29</f>
-        <v>49000</v>
+        <f>FF!L38</f>
+        <v>76000</v>
       </c>
       <c r="E8" s="45">
         <f>D8+C8</f>
-        <v>107000</v>
+        <v>395798.4375</v>
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
     </row>
-    <row r="9" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="3"/>
-      <c r="B9" s="4" t="s">
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="6">
+        <v>3</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="C9" s="45"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45">
+        <f>[1]Sheet1!$J$28+[2]Sheet1!$J$28</f>
+        <v>391568.75</v>
+      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:12" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="3"/>
+      <c r="B10" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="46">
-        <f t="shared" ref="C9:D9" si="0">SUM(C7:C8)</f>
-        <v>315648</v>
-      </c>
-      <c r="D9" s="46">
-        <f t="shared" si="0"/>
-        <v>137055.29999999999</v>
-      </c>
-      <c r="E9" s="46">
-        <f>SUM(E7:E8)</f>
-        <v>452703.3</v>
+      <c r="C10" s="46"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46">
+        <f>SUM(E7:E9)</f>
+        <v>1241077.4875</v>
       </c>
     </row>
   </sheetData>
@@ -2016,8 +2195,8 @@
   </sheetPr>
   <dimension ref="A1:T48"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A43" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="Q51" sqref="Q51"/>
+    <sheetView showGridLines="0" topLeftCell="A30" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7:C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2072,68 +2251,68 @@
     </row>
     <row r="3" spans="1:20" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:20" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="118" t="s">
+      <c r="B4" s="138"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="120"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="144"/>
+      <c r="L4" s="144"/>
+      <c r="M4" s="145"/>
     </row>
     <row r="5" spans="1:20" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="164" t="s">
+      <c r="B5" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="165"/>
-      <c r="D5" s="160" t="s">
+      <c r="C5" s="156"/>
+      <c r="D5" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="162" t="s">
+      <c r="E5" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="139" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="116" t="s">
+      <c r="G5" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="116" t="s">
+      <c r="H5" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="I5" s="121" t="s">
+      <c r="I5" s="146" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="122"/>
-      <c r="K5" s="121" t="s">
+      <c r="J5" s="147"/>
+      <c r="K5" s="146" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="122"/>
-      <c r="M5" s="157" t="s">
+      <c r="L5" s="147"/>
+      <c r="M5" s="148" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:20" s="54" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="159"/>
-      <c r="B6" s="166"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
+      <c r="A6" s="150"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
       <c r="I6" s="47" t="s">
         <v>73</v>
       </c>
@@ -2146,48 +2325,48 @@
       <c r="L6" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="M6" s="157"/>
+      <c r="M6" s="148"/>
     </row>
     <row r="7" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="147"/>
-      <c r="B7" s="149" t="s">
+      <c r="A7" s="171"/>
+      <c r="B7" s="173" t="s">
         <v>42</v>
       </c>
-      <c r="C7" s="150"/>
-      <c r="D7" s="151"/>
-      <c r="E7" s="151"/>
-      <c r="F7" s="147"/>
-      <c r="G7" s="147"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="177"/>
+      <c r="E7" s="177"/>
+      <c r="F7" s="171"/>
+      <c r="G7" s="171"/>
       <c r="H7" s="55"/>
       <c r="I7" s="55"/>
       <c r="J7" s="55"/>
       <c r="K7" s="55"/>
       <c r="L7" s="55"/>
-      <c r="M7" s="147"/>
+      <c r="M7" s="171"/>
     </row>
     <row r="8" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="148"/>
-      <c r="B8" s="139"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="152"/>
-      <c r="E8" s="152"/>
-      <c r="F8" s="148"/>
-      <c r="G8" s="148"/>
+      <c r="A8" s="172"/>
+      <c r="B8" s="175"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="178"/>
+      <c r="E8" s="178"/>
+      <c r="F8" s="172"/>
+      <c r="G8" s="172"/>
       <c r="H8" s="57"/>
       <c r="I8" s="57"/>
       <c r="J8" s="57"/>
       <c r="K8" s="57"/>
       <c r="L8" s="57"/>
-      <c r="M8" s="148"/>
+      <c r="M8" s="172"/>
     </row>
     <row r="9" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="59">
         <v>1</v>
       </c>
-      <c r="B9" s="131" t="s">
+      <c r="B9" s="167" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="132"/>
+      <c r="C9" s="168"/>
       <c r="D9" s="60"/>
       <c r="E9" s="60"/>
       <c r="F9" s="61"/>
@@ -2201,10 +2380,10 @@
     </row>
     <row r="10" spans="1:20" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="55"/>
-      <c r="B10" s="170" t="s">
+      <c r="B10" s="185" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="171"/>
+      <c r="C10" s="186"/>
       <c r="D10" s="62"/>
       <c r="E10" s="56"/>
       <c r="F10" s="63"/>
@@ -2265,10 +2444,10 @@
     </row>
     <row r="12" spans="1:20" s="76" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="72"/>
-      <c r="B12" s="137" t="s">
+      <c r="B12" s="193" t="s">
         <v>75</v>
       </c>
-      <c r="C12" s="138"/>
+      <c r="C12" s="194"/>
       <c r="D12" s="73"/>
       <c r="E12" s="74"/>
       <c r="F12" s="75"/>
@@ -2291,10 +2470,10 @@
       <c r="A13" s="59">
         <v>2</v>
       </c>
-      <c r="B13" s="139" t="s">
+      <c r="B13" s="175" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="140"/>
+      <c r="C13" s="176"/>
       <c r="D13" s="60"/>
       <c r="E13" s="60"/>
       <c r="F13" s="61"/>
@@ -2308,10 +2487,10 @@
     </row>
     <row r="14" spans="1:20" ht="102.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="55"/>
-      <c r="B14" s="170" t="s">
+      <c r="B14" s="185" t="s">
         <v>12</v>
       </c>
-      <c r="C14" s="171"/>
+      <c r="C14" s="186"/>
       <c r="D14" s="62"/>
       <c r="E14" s="56"/>
       <c r="F14" s="69"/>
@@ -2351,33 +2530,33 @@
         <v>300000</v>
       </c>
       <c r="I15" s="102">
-        <v>215.81</v>
+        <v>600</v>
       </c>
       <c r="J15" s="98">
         <f>I15*F15</f>
-        <v>53952.5</v>
+        <v>150000</v>
       </c>
       <c r="K15" s="102">
         <f>I15</f>
-        <v>215.81</v>
+        <v>600</v>
       </c>
       <c r="L15" s="98">
         <f>K15*G15</f>
-        <v>10790.5</v>
+        <v>30000</v>
       </c>
       <c r="M15" s="98">
         <f>L15+J15</f>
-        <v>64743</v>
+        <v>180000</v>
       </c>
       <c r="O15" s="71"/>
       <c r="P15" s="71"/>
     </row>
     <row r="16" spans="1:20" s="76" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="72"/>
-      <c r="B16" s="137" t="s">
+      <c r="B16" s="193" t="s">
         <v>76</v>
       </c>
-      <c r="C16" s="138"/>
+      <c r="C16" s="194"/>
       <c r="D16" s="73"/>
       <c r="E16" s="74"/>
       <c r="F16" s="69"/>
@@ -2400,10 +2579,10 @@
       <c r="A17" s="59">
         <v>3</v>
       </c>
-      <c r="B17" s="139" t="s">
+      <c r="B17" s="175" t="s">
         <v>32</v>
       </c>
-      <c r="C17" s="140"/>
+      <c r="C17" s="176"/>
       <c r="D17" s="61"/>
       <c r="E17" s="61"/>
       <c r="F17" s="69"/>
@@ -2417,10 +2596,10 @@
     </row>
     <row r="18" spans="1:20" ht="61.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="55"/>
-      <c r="B18" s="143" t="s">
+      <c r="B18" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="144"/>
+      <c r="C18" s="200"/>
       <c r="D18" s="62"/>
       <c r="E18" s="56"/>
       <c r="F18" s="69"/>
@@ -2457,33 +2636,33 @@
         <v>65000</v>
       </c>
       <c r="I19" s="98">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="J19" s="98">
         <f t="shared" ref="J19:J47" si="2">I19*F19</f>
-        <v>55000</v>
+        <v>30250</v>
       </c>
       <c r="K19" s="98">
         <f t="shared" ref="K19:K47" si="3">I19</f>
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="L19" s="98">
         <f t="shared" ref="L19:L47" si="4">K19*G19</f>
-        <v>10000</v>
+        <v>5500</v>
       </c>
       <c r="M19" s="98">
         <f t="shared" si="0"/>
-        <v>65000</v>
+        <v>35750</v>
       </c>
       <c r="O19" s="71"/>
       <c r="P19" s="71"/>
     </row>
     <row r="20" spans="1:20" s="76" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="80"/>
-      <c r="B20" s="145" t="s">
+      <c r="B20" s="201" t="s">
         <v>77</v>
       </c>
-      <c r="C20" s="146"/>
+      <c r="C20" s="202"/>
       <c r="D20" s="81"/>
       <c r="E20" s="82"/>
       <c r="F20" s="69"/>
@@ -2521,10 +2700,10 @@
       <c r="A21" s="83">
         <v>4</v>
       </c>
-      <c r="B21" s="139" t="s">
+      <c r="B21" s="175" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="140"/>
+      <c r="C21" s="176"/>
       <c r="D21" s="58"/>
       <c r="E21" s="58"/>
       <c r="F21" s="69"/>
@@ -2538,20 +2717,20 @@
     </row>
     <row r="22" spans="1:20" ht="78" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="61"/>
-      <c r="B22" s="135" t="s">
+      <c r="B22" s="195" t="s">
         <v>39</v>
       </c>
-      <c r="C22" s="136"/>
+      <c r="C22" s="196"/>
       <c r="D22" s="67">
         <v>1</v>
       </c>
       <c r="E22" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="202">
+      <c r="F22" s="113">
         <v>750</v>
       </c>
-      <c r="G22" s="202">
+      <c r="G22" s="113">
         <v>100</v>
       </c>
       <c r="H22" s="105">
@@ -2580,10 +2759,10 @@
       <c r="A23" s="83">
         <v>5</v>
       </c>
-      <c r="B23" s="139" t="s">
+      <c r="B23" s="175" t="s">
         <v>35</v>
       </c>
-      <c r="C23" s="140"/>
+      <c r="C23" s="176"/>
       <c r="D23" s="58"/>
       <c r="E23" s="58"/>
       <c r="F23" s="69"/>
@@ -2597,20 +2776,20 @@
     </row>
     <row r="24" spans="1:20" ht="69" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="79"/>
-      <c r="B24" s="141" t="s">
+      <c r="B24" s="197" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="142"/>
+      <c r="C24" s="198"/>
       <c r="D24" s="67">
         <v>1</v>
       </c>
       <c r="E24" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="202">
+      <c r="F24" s="113">
         <v>300</v>
       </c>
-      <c r="G24" s="202">
+      <c r="G24" s="113">
         <v>50</v>
       </c>
       <c r="H24" s="105">
@@ -2637,10 +2816,10 @@
     </row>
     <row r="25" spans="1:20" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="61"/>
-      <c r="B25" s="129" t="s">
+      <c r="B25" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="C25" s="130"/>
+      <c r="C25" s="166"/>
       <c r="D25" s="78"/>
       <c r="E25" s="60"/>
       <c r="F25" s="69"/>
@@ -2654,10 +2833,10 @@
     </row>
     <row r="26" spans="1:20" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="84"/>
-      <c r="B26" s="127" t="s">
+      <c r="B26" s="163" t="s">
         <v>79</v>
       </c>
-      <c r="C26" s="128"/>
+      <c r="C26" s="164"/>
       <c r="D26" s="85"/>
       <c r="E26" s="68"/>
       <c r="F26" s="69"/>
@@ -2671,10 +2850,10 @@
     </row>
     <row r="27" spans="1:20" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="55"/>
-      <c r="B27" s="149" t="s">
+      <c r="B27" s="173" t="s">
         <v>87</v>
       </c>
-      <c r="C27" s="150"/>
+      <c r="C27" s="174"/>
       <c r="D27" s="56"/>
       <c r="E27" s="56"/>
       <c r="F27" s="69"/>
@@ -2690,10 +2869,10 @@
       <c r="A28" s="59">
         <v>6</v>
       </c>
-      <c r="B28" s="131" t="s">
+      <c r="B28" s="167" t="s">
         <v>15</v>
       </c>
-      <c r="C28" s="132"/>
+      <c r="C28" s="168"/>
       <c r="D28" s="60"/>
       <c r="E28" s="60"/>
       <c r="F28" s="69"/>
@@ -2707,39 +2886,39 @@
     </row>
     <row r="29" spans="1:20" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="55"/>
-      <c r="B29" s="170" t="s">
+      <c r="B29" s="185" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="171"/>
+      <c r="C29" s="186"/>
       <c r="D29" s="62"/>
       <c r="E29" s="56"/>
-      <c r="F29" s="210"/>
-      <c r="G29" s="211"/>
-      <c r="H29" s="211"/>
-      <c r="I29" s="211"/>
-      <c r="J29" s="211"/>
-      <c r="K29" s="211"/>
-      <c r="L29" s="211"/>
-      <c r="M29" s="212"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="116"/>
+      <c r="H29" s="116"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="116"/>
+      <c r="K29" s="116"/>
+      <c r="L29" s="116"/>
+      <c r="M29" s="117"/>
     </row>
     <row r="30" spans="1:20" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A30" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="B30" s="153" t="s">
+      <c r="B30" s="179" t="s">
         <v>88</v>
       </c>
-      <c r="C30" s="154"/>
+      <c r="C30" s="180"/>
       <c r="D30" s="87"/>
       <c r="E30" s="58"/>
-      <c r="F30" s="213"/>
-      <c r="G30" s="214"/>
-      <c r="H30" s="214"/>
-      <c r="I30" s="214"/>
-      <c r="J30" s="214"/>
-      <c r="K30" s="214"/>
-      <c r="L30" s="214"/>
-      <c r="M30" s="215"/>
+      <c r="F30" s="118"/>
+      <c r="G30" s="119"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="119"/>
+      <c r="J30" s="119"/>
+      <c r="K30" s="119"/>
+      <c r="L30" s="119"/>
+      <c r="M30" s="120"/>
     </row>
     <row r="31" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="79"/>
@@ -2765,22 +2944,24 @@
         <f t="shared" si="1"/>
         <v>22000</v>
       </c>
-      <c r="I31" s="98"/>
+      <c r="I31" s="98">
+        <v>4</v>
+      </c>
       <c r="J31" s="98">
         <f t="shared" si="2"/>
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="K31" s="98">
         <f t="shared" si="3"/>
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="L31" s="98">
         <f t="shared" si="4"/>
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="M31" s="98">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>22000</v>
       </c>
       <c r="O31" s="71"/>
       <c r="P31" s="71"/>
@@ -2791,36 +2972,36 @@
       <c r="C32" s="77"/>
       <c r="D32" s="62"/>
       <c r="E32" s="56"/>
-      <c r="F32" s="204">
+      <c r="F32" s="187">
         <f>L32+J32</f>
         <v>0</v>
       </c>
-      <c r="G32" s="205"/>
-      <c r="H32" s="205"/>
-      <c r="I32" s="205"/>
-      <c r="J32" s="205"/>
-      <c r="K32" s="205"/>
-      <c r="L32" s="205"/>
-      <c r="M32" s="206"/>
+      <c r="G32" s="188"/>
+      <c r="H32" s="188"/>
+      <c r="I32" s="188"/>
+      <c r="J32" s="188"/>
+      <c r="K32" s="188"/>
+      <c r="L32" s="188"/>
+      <c r="M32" s="189"/>
     </row>
     <row r="33" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="91" t="s">
         <v>44</v>
       </c>
-      <c r="B33" s="153" t="s">
+      <c r="B33" s="179" t="s">
         <v>38</v>
       </c>
-      <c r="C33" s="154"/>
+      <c r="C33" s="180"/>
       <c r="D33" s="87"/>
       <c r="E33" s="58"/>
-      <c r="F33" s="207"/>
-      <c r="G33" s="208"/>
-      <c r="H33" s="208"/>
-      <c r="I33" s="208"/>
-      <c r="J33" s="208"/>
-      <c r="K33" s="208"/>
-      <c r="L33" s="208"/>
-      <c r="M33" s="209"/>
+      <c r="F33" s="190"/>
+      <c r="G33" s="191"/>
+      <c r="H33" s="191"/>
+      <c r="I33" s="191"/>
+      <c r="J33" s="191"/>
+      <c r="K33" s="191"/>
+      <c r="L33" s="191"/>
+      <c r="M33" s="192"/>
     </row>
     <row r="34" spans="1:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="79"/>
@@ -2868,10 +3049,10 @@
     </row>
     <row r="35" spans="1:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="61"/>
-      <c r="B35" s="155" t="s">
+      <c r="B35" s="181" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="156"/>
+      <c r="C35" s="182"/>
       <c r="D35" s="78"/>
       <c r="E35" s="60"/>
       <c r="F35" s="69"/>
@@ -2885,10 +3066,10 @@
     </row>
     <row r="36" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="84"/>
-      <c r="B36" s="127" t="s">
+      <c r="B36" s="163" t="s">
         <v>80</v>
       </c>
-      <c r="C36" s="128"/>
+      <c r="C36" s="164"/>
       <c r="D36" s="85"/>
       <c r="E36" s="68"/>
       <c r="F36" s="69"/>
@@ -2901,13 +3082,13 @@
       <c r="M36" s="98"/>
     </row>
     <row r="37" spans="1:16" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="147"/>
-      <c r="B37" s="149" t="s">
+      <c r="A37" s="171"/>
+      <c r="B37" s="173" t="s">
         <v>46</v>
       </c>
-      <c r="C37" s="150"/>
-      <c r="D37" s="151"/>
-      <c r="E37" s="151"/>
+      <c r="C37" s="174"/>
+      <c r="D37" s="177"/>
+      <c r="E37" s="177"/>
       <c r="F37" s="69"/>
       <c r="G37" s="69"/>
       <c r="H37" s="98"/>
@@ -2918,11 +3099,11 @@
       <c r="M37" s="98"/>
     </row>
     <row r="38" spans="1:16" ht="17.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="148"/>
-      <c r="B38" s="139"/>
-      <c r="C38" s="140"/>
-      <c r="D38" s="152"/>
-      <c r="E38" s="152"/>
+      <c r="A38" s="172"/>
+      <c r="B38" s="175"/>
+      <c r="C38" s="176"/>
+      <c r="D38" s="178"/>
+      <c r="E38" s="178"/>
       <c r="F38" s="69"/>
       <c r="G38" s="69"/>
       <c r="H38" s="98"/>
@@ -2936,10 +3117,10 @@
       <c r="A39" s="92">
         <v>7</v>
       </c>
-      <c r="B39" s="131" t="s">
+      <c r="B39" s="167" t="s">
         <v>36</v>
       </c>
-      <c r="C39" s="132"/>
+      <c r="C39" s="168"/>
       <c r="D39" s="60"/>
       <c r="E39" s="60"/>
       <c r="F39" s="69"/>
@@ -2953,10 +3134,10 @@
     </row>
     <row r="40" spans="1:16" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="79"/>
-      <c r="B40" s="168" t="s">
+      <c r="B40" s="183" t="s">
         <v>50</v>
       </c>
-      <c r="C40" s="169"/>
+      <c r="C40" s="184"/>
       <c r="D40" s="67">
         <v>1</v>
       </c>
@@ -2995,10 +3176,10 @@
     </row>
     <row r="41" spans="1:16" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="61"/>
-      <c r="B41" s="129" t="s">
+      <c r="B41" s="165" t="s">
         <v>78</v>
       </c>
-      <c r="C41" s="130"/>
+      <c r="C41" s="166"/>
       <c r="D41" s="78"/>
       <c r="E41" s="60"/>
       <c r="F41" s="69"/>
@@ -3012,10 +3193,10 @@
     </row>
     <row r="42" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="84"/>
-      <c r="B42" s="127" t="s">
+      <c r="B42" s="163" t="s">
         <v>81</v>
       </c>
-      <c r="C42" s="128"/>
+      <c r="C42" s="164"/>
       <c r="D42" s="85"/>
       <c r="E42" s="68"/>
       <c r="F42" s="69"/>
@@ -3029,10 +3210,10 @@
     </row>
     <row r="43" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="93"/>
-      <c r="B43" s="131" t="s">
+      <c r="B43" s="167" t="s">
         <v>48</v>
       </c>
-      <c r="C43" s="132"/>
+      <c r="C43" s="168"/>
       <c r="D43" s="85"/>
       <c r="E43" s="68"/>
       <c r="F43" s="69"/>
@@ -3048,10 +3229,10 @@
       <c r="A44" s="94">
         <v>8</v>
       </c>
-      <c r="B44" s="133" t="s">
+      <c r="B44" s="169" t="s">
         <v>23</v>
       </c>
-      <c r="C44" s="134"/>
+      <c r="C44" s="170"/>
       <c r="D44" s="58"/>
       <c r="E44" s="58"/>
       <c r="F44" s="69"/>
@@ -3065,10 +3246,10 @@
     </row>
     <row r="45" spans="1:16" ht="74.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="95"/>
-      <c r="B45" s="125" t="s">
+      <c r="B45" s="161" t="s">
         <v>11</v>
       </c>
-      <c r="C45" s="126"/>
+      <c r="C45" s="162"/>
       <c r="D45" s="85">
         <v>1</v>
       </c>
@@ -3109,10 +3290,10 @@
       <c r="A46" s="96">
         <v>9</v>
       </c>
-      <c r="B46" s="123" t="s">
+      <c r="B46" s="159" t="s">
         <v>24</v>
       </c>
-      <c r="C46" s="124"/>
+      <c r="C46" s="160"/>
       <c r="D46" s="58"/>
       <c r="E46" s="58"/>
       <c r="F46" s="69"/>
@@ -3126,10 +3307,10 @@
     </row>
     <row r="47" spans="1:16" s="76" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="97"/>
-      <c r="B47" s="125" t="s">
+      <c r="B47" s="161" t="s">
         <v>49</v>
       </c>
-      <c r="C47" s="126"/>
+      <c r="C47" s="162"/>
       <c r="D47" s="85">
         <v>1</v>
       </c>
@@ -3168,31 +3349,31 @@
     </row>
     <row r="48" spans="1:16" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="84"/>
-      <c r="B48" s="127" t="s">
+      <c r="B48" s="163" t="s">
         <v>82</v>
       </c>
-      <c r="C48" s="128"/>
+      <c r="C48" s="164"/>
       <c r="D48" s="85"/>
       <c r="E48" s="68"/>
       <c r="F48" s="69"/>
       <c r="G48" s="69"/>
-      <c r="H48" s="216">
+      <c r="H48" s="121">
         <f>SUM(H10:H47)</f>
         <v>698700</v>
       </c>
-      <c r="I48" s="217"/>
-      <c r="J48" s="216">
+      <c r="I48" s="122"/>
+      <c r="J48" s="121">
         <f>SUM(J10:J47)</f>
-        <v>257648</v>
-      </c>
-      <c r="K48" s="217"/>
-      <c r="L48" s="216">
+        <v>346945.5</v>
+      </c>
+      <c r="K48" s="122"/>
+      <c r="L48" s="121">
         <f>SUM(L10:L47)</f>
-        <v>88055.3</v>
-      </c>
-      <c r="M48" s="216">
+        <v>106764.8</v>
+      </c>
+      <c r="M48" s="121">
         <f>SUM(M10:M47)</f>
-        <v>345703.3</v>
+        <v>453710.3</v>
       </c>
     </row>
   </sheetData>
@@ -3203,26 +3384,6 @@
     <mergeCell ref="B12:C12"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B14:C14"/>
-    <mergeCell ref="B40:C40"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="E37:E38"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="M7:M8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="B7:C8"/>
-    <mergeCell ref="D7:D8"/>
-    <mergeCell ref="E7:E8"/>
-    <mergeCell ref="F7:F8"/>
-    <mergeCell ref="G7:G8"/>
     <mergeCell ref="B22:C22"/>
     <mergeCell ref="B25:C25"/>
     <mergeCell ref="B26:C26"/>
@@ -3233,6 +3394,26 @@
     <mergeCell ref="B18:C18"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B40:C40"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="E37:E38"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="B39:C39"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="M7:M8"/>
+    <mergeCell ref="A7:A8"/>
+    <mergeCell ref="B7:C8"/>
+    <mergeCell ref="D7:D8"/>
+    <mergeCell ref="E7:E8"/>
+    <mergeCell ref="F7:F8"/>
+    <mergeCell ref="G7:G8"/>
     <mergeCell ref="B46:C46"/>
     <mergeCell ref="B47:C47"/>
     <mergeCell ref="B48:C48"/>
@@ -3275,10 +3456,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M38"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="90" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10:C10"/>
+    <sheetView showGridLines="0" topLeftCell="A20" zoomScaleNormal="100" zoomScaleSheetLayoutView="90" zoomScalePageLayoutView="90" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -3333,68 +3514,68 @@
     </row>
     <row r="3" spans="1:13" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="4" spans="1:13" s="49" customFormat="1" ht="40.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="113" t="s">
+      <c r="A4" s="138" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="113"/>
-      <c r="C4" s="113"/>
-      <c r="D4" s="113"/>
-      <c r="E4" s="113"/>
-      <c r="F4" s="113"/>
-      <c r="G4" s="113"/>
-      <c r="H4" s="113"/>
-      <c r="I4" s="118" t="s">
+      <c r="B4" s="138"/>
+      <c r="C4" s="138"/>
+      <c r="D4" s="138"/>
+      <c r="E4" s="138"/>
+      <c r="F4" s="138"/>
+      <c r="G4" s="138"/>
+      <c r="H4" s="138"/>
+      <c r="I4" s="143" t="s">
         <v>86</v>
       </c>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
-      <c r="M4" s="120"/>
+      <c r="J4" s="144"/>
+      <c r="K4" s="211"/>
+      <c r="L4" s="211"/>
+      <c r="M4" s="212"/>
     </row>
     <row r="5" spans="1:13" s="54" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="158" t="s">
+      <c r="A5" s="149" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="164" t="s">
+      <c r="B5" s="155" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="165"/>
-      <c r="D5" s="160" t="s">
+      <c r="C5" s="156"/>
+      <c r="D5" s="151" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="162" t="s">
+      <c r="E5" s="153" t="s">
         <v>0</v>
       </c>
-      <c r="F5" s="114" t="s">
+      <c r="F5" s="139" t="s">
         <v>83</v>
       </c>
-      <c r="G5" s="116" t="s">
+      <c r="G5" s="141" t="s">
         <v>84</v>
       </c>
-      <c r="H5" s="116" t="s">
+      <c r="H5" s="141" t="s">
         <v>85</v>
       </c>
-      <c r="I5" s="121" t="s">
+      <c r="I5" s="146" t="s">
         <v>71</v>
       </c>
-      <c r="J5" s="122"/>
-      <c r="K5" s="121" t="s">
+      <c r="J5" s="147"/>
+      <c r="K5" s="148" t="s">
         <v>72</v>
       </c>
-      <c r="L5" s="122"/>
-      <c r="M5" s="157" t="s">
+      <c r="L5" s="148"/>
+      <c r="M5" s="148" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="54" customFormat="1" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="159"/>
-      <c r="B6" s="166"/>
-      <c r="C6" s="167"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="163"/>
-      <c r="F6" s="115"/>
-      <c r="G6" s="117"/>
-      <c r="H6" s="117"/>
+      <c r="A6" s="150"/>
+      <c r="B6" s="157"/>
+      <c r="C6" s="158"/>
+      <c r="D6" s="152"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="142"/>
+      <c r="H6" s="142"/>
       <c r="I6" s="47" t="s">
         <v>73</v>
       </c>
@@ -3407,14 +3588,14 @@
       <c r="L6" s="47" t="s">
         <v>74</v>
       </c>
-      <c r="M6" s="157"/>
+      <c r="M6" s="148"/>
     </row>
     <row r="7" spans="1:13" ht="18" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="26"/>
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="240" t="s">
         <v>52</v>
       </c>
-      <c r="C7" s="201"/>
+      <c r="C7" s="241"/>
       <c r="D7" s="39"/>
       <c r="E7" s="40"/>
       <c r="F7" s="9"/>
@@ -3422,586 +3603,822 @@
       <c r="H7" s="9"/>
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-      <c r="L7" s="9"/>
-      <c r="M7" s="9"/>
-    </row>
-    <row r="8" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="194"/>
-      <c r="B8" s="196" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="197"/>
-      <c r="D8" s="186"/>
-      <c r="E8" s="182"/>
-      <c r="F8" s="190"/>
-      <c r="G8" s="190"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="6"/>
-      <c r="K8" s="6"/>
-      <c r="L8" s="6"/>
-      <c r="M8" s="190"/>
-    </row>
-    <row r="9" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="195"/>
-      <c r="B9" s="198"/>
-      <c r="C9" s="199"/>
-      <c r="D9" s="187"/>
-      <c r="E9" s="183"/>
-      <c r="F9" s="191"/>
-      <c r="G9" s="191"/>
-      <c r="H9" s="25"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
-      <c r="L9" s="25"/>
-      <c r="M9" s="191"/>
-    </row>
-    <row r="10" spans="1:13" s="17" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="194">
+      <c r="K7" s="7"/>
+      <c r="L7" s="7"/>
+      <c r="M7" s="7"/>
+    </row>
+    <row r="8" spans="1:13" s="127" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="26"/>
+      <c r="B8" s="240" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="241"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="134"/>
+      <c r="L8" s="134"/>
+      <c r="M8" s="134"/>
+    </row>
+    <row r="9" spans="1:13" s="127" customFormat="1" ht="73.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="26"/>
+      <c r="B9" s="209" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="210"/>
+      <c r="D9" s="125"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="134"/>
+      <c r="L9" s="134"/>
+      <c r="M9" s="134"/>
+    </row>
+    <row r="10" spans="1:13" s="127" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="234"/>
+      <c r="B10" s="236" t="s">
+        <v>90</v>
+      </c>
+      <c r="C10" s="237"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="207"/>
+      <c r="F10" s="207"/>
+      <c r="G10" s="207"/>
+      <c r="H10" s="207"/>
+      <c r="I10" s="207"/>
+      <c r="J10" s="207"/>
+      <c r="K10" s="207"/>
+      <c r="L10" s="207"/>
+      <c r="M10" s="207"/>
+    </row>
+    <row r="11" spans="1:13" s="127" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="235"/>
+      <c r="B11" s="238"/>
+      <c r="C11" s="239"/>
+      <c r="D11" s="235"/>
+      <c r="E11" s="208"/>
+      <c r="F11" s="208"/>
+      <c r="G11" s="208"/>
+      <c r="H11" s="208"/>
+      <c r="I11" s="208"/>
+      <c r="J11" s="208"/>
+      <c r="K11" s="208"/>
+      <c r="L11" s="208"/>
+      <c r="M11" s="208"/>
+    </row>
+    <row r="12" spans="1:13" s="129" customFormat="1" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="128">
         <v>1</v>
       </c>
-      <c r="B10" s="192" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" s="193"/>
-      <c r="D10" s="37"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="16"/>
-    </row>
-    <row r="11" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="195"/>
-      <c r="B11" s="12" t="s">
+      <c r="B12" s="209" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="210"/>
+      <c r="D12" s="16"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="16"/>
+      <c r="H12" s="16"/>
+      <c r="I12" s="16"/>
+      <c r="J12" s="16"/>
+      <c r="K12" s="135"/>
+      <c r="L12" s="135"/>
+      <c r="M12" s="135"/>
+    </row>
+    <row r="13" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>67</v>
-      </c>
-      <c r="D11" s="37">
-        <v>1</v>
-      </c>
-      <c r="E11" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="20">
-        <v>7000</v>
-      </c>
-      <c r="G11" s="20">
-        <v>1000</v>
-      </c>
-      <c r="H11" s="98">
-        <f>SUM(F11+G11)*D11</f>
-        <v>8000</v>
-      </c>
-      <c r="I11" s="102">
-        <v>4</v>
-      </c>
-      <c r="J11" s="98">
-        <f>I11*F11</f>
-        <v>28000</v>
-      </c>
-      <c r="K11" s="102">
-        <f>I11</f>
-        <v>4</v>
-      </c>
-      <c r="L11" s="98">
-        <f>K11*G11</f>
-        <v>4000</v>
-      </c>
-      <c r="M11" s="98">
-        <f>L11+J11</f>
-        <v>32000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" s="17" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="176" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="177"/>
-      <c r="D12" s="37"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="19"/>
-    </row>
-    <row r="13" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="194"/>
-      <c r="B13" s="196" t="s">
-        <v>64</v>
-      </c>
-      <c r="C13" s="197"/>
-      <c r="D13" s="186"/>
-      <c r="E13" s="182"/>
-      <c r="F13" s="190"/>
-      <c r="G13" s="190"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="6"/>
-      <c r="M13" s="190"/>
-    </row>
-    <row r="14" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="195"/>
-      <c r="B14" s="198"/>
-      <c r="C14" s="199"/>
-      <c r="D14" s="187"/>
-      <c r="E14" s="183"/>
-      <c r="F14" s="191"/>
-      <c r="G14" s="191"/>
-      <c r="H14" s="25"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="25"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="191"/>
-    </row>
-    <row r="15" spans="1:13" s="17" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="27">
-        <v>2</v>
-      </c>
-      <c r="B15" s="192" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="193"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="35"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="16"/>
-      <c r="J15" s="16"/>
-      <c r="K15" s="16"/>
-      <c r="L15" s="16"/>
-      <c r="M15" s="16"/>
-    </row>
-    <row r="16" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D16" s="37">
-        <v>4</v>
-      </c>
-      <c r="E16" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F16" s="20">
-        <v>27000</v>
-      </c>
-      <c r="G16" s="20">
-        <v>1000</v>
-      </c>
-      <c r="H16" s="98">
-        <f t="shared" ref="H16:H17" si="0">SUM(F16+G16)*D16</f>
-        <v>112000</v>
-      </c>
-      <c r="I16" s="102"/>
-      <c r="J16" s="98">
-        <f t="shared" ref="J16:J17" si="1">I16*F16</f>
+      <c r="C13" s="131" t="s">
+        <v>92</v>
+      </c>
+      <c r="D13" s="132">
+        <v>40</v>
+      </c>
+      <c r="E13" s="133" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="20">
+        <v>524.0625</v>
+      </c>
+      <c r="G13" s="20">
+        <v>200</v>
+      </c>
+      <c r="H13" s="98">
+        <f t="shared" ref="H13:H14" si="0">SUM(F13+G13)*D13</f>
+        <v>28962.5</v>
+      </c>
+      <c r="I13" s="102">
+        <v>45</v>
+      </c>
+      <c r="J13" s="98">
+        <f t="shared" ref="J13:J14" si="1">I13*F13</f>
+        <v>23582.8125</v>
+      </c>
+      <c r="K13" s="102">
+        <f t="shared" ref="K13:K14" si="2">I13</f>
+        <v>45</v>
+      </c>
+      <c r="L13" s="98">
+        <f t="shared" ref="L13:L14" si="3">K13*G13</f>
+        <v>9000</v>
+      </c>
+      <c r="M13" s="98">
+        <f t="shared" ref="M13:M14" si="4">L13+J13</f>
+        <v>32582.8125</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="130" t="s">
+        <v>54</v>
+      </c>
+      <c r="C14" s="131" t="s">
+        <v>93</v>
+      </c>
+      <c r="D14" s="132">
+        <v>40</v>
+      </c>
+      <c r="E14" s="133" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="98">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="K16" s="102">
-        <f t="shared" ref="K16:K17" si="2">I16</f>
-        <v>0</v>
-      </c>
-      <c r="L16" s="98">
-        <f t="shared" ref="L16:L17" si="3">K16*G16</f>
-        <v>0</v>
-      </c>
-      <c r="M16" s="98">
-        <f t="shared" ref="M16:M17" si="4">L16+J16</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="12" t="s">
-        <v>54</v>
-      </c>
-      <c r="C17" s="13" t="s">
-        <v>58</v>
-      </c>
-      <c r="D17" s="37">
-        <v>4</v>
-      </c>
-      <c r="E17" s="35" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="20">
-        <v>17000</v>
-      </c>
-      <c r="G17" s="20">
-        <v>1000</v>
-      </c>
-      <c r="H17" s="98">
-        <f t="shared" si="0"/>
-        <v>72000</v>
-      </c>
-      <c r="I17" s="102"/>
-      <c r="J17" s="98">
+      <c r="I14" s="102"/>
+      <c r="J14" s="98">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="K17" s="102">
+      <c r="K14" s="102">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="98">
+      <c r="L14" s="98">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M17" s="98">
+      <c r="M14" s="98">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:13" s="17" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="35"/>
-      <c r="B18" s="188" t="s">
+    <row r="15" spans="1:13" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="234"/>
+      <c r="B15" s="236" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="237"/>
+      <c r="D15" s="227"/>
+      <c r="E15" s="223"/>
+      <c r="F15" s="207"/>
+      <c r="G15" s="207"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="207"/>
+      <c r="L15" s="207"/>
+      <c r="M15" s="231"/>
+    </row>
+    <row r="16" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="235"/>
+      <c r="B16" s="238"/>
+      <c r="C16" s="239"/>
+      <c r="D16" s="228"/>
+      <c r="E16" s="224"/>
+      <c r="F16" s="208"/>
+      <c r="G16" s="208"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="208"/>
+      <c r="L16" s="208"/>
+      <c r="M16" s="231"/>
+    </row>
+    <row r="17" spans="1:13" s="17" customFormat="1" ht="57.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="234">
+        <v>1</v>
+      </c>
+      <c r="B17" s="232" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="233"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="35"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="16"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="16"/>
+      <c r="J17" s="16"/>
+      <c r="K17" s="16"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="16"/>
+    </row>
+    <row r="18" spans="1:13" s="11" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="235"/>
+      <c r="B18" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>67</v>
+      </c>
+      <c r="D18" s="37">
+        <v>1</v>
+      </c>
+      <c r="E18" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="20">
+        <v>7000</v>
+      </c>
+      <c r="G18" s="20">
+        <v>1000</v>
+      </c>
+      <c r="H18" s="98">
+        <f>SUM(F18+G18)*D18</f>
+        <v>8000</v>
+      </c>
+      <c r="I18" s="102">
+        <v>4</v>
+      </c>
+      <c r="J18" s="98">
+        <f>I18*F18</f>
+        <v>28000</v>
+      </c>
+      <c r="K18" s="102">
+        <f>I18</f>
+        <v>4</v>
+      </c>
+      <c r="L18" s="98">
+        <f>K18*G18</f>
+        <v>4000</v>
+      </c>
+      <c r="M18" s="98">
+        <f>L18+J18</f>
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="17" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="15"/>
+      <c r="B19" s="217" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19" s="218"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20"/>
+      <c r="H19" s="20"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+      <c r="K19" s="20"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="19"/>
+    </row>
+    <row r="20" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="234"/>
+      <c r="B20" s="236" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="237"/>
+      <c r="D20" s="227"/>
+      <c r="E20" s="223"/>
+      <c r="F20" s="207"/>
+      <c r="G20" s="207"/>
+      <c r="H20" s="6"/>
+      <c r="I20" s="6"/>
+      <c r="J20" s="6"/>
+      <c r="K20" s="6"/>
+      <c r="L20" s="6"/>
+      <c r="M20" s="207"/>
+    </row>
+    <row r="21" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="235"/>
+      <c r="B21" s="238"/>
+      <c r="C21" s="239"/>
+      <c r="D21" s="228"/>
+      <c r="E21" s="224"/>
+      <c r="F21" s="208"/>
+      <c r="G21" s="208"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="25"/>
+      <c r="K21" s="25"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="208"/>
+    </row>
+    <row r="22" spans="1:13" s="17" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="27">
+        <v>2</v>
+      </c>
+      <c r="B22" s="232" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="233"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="35"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="16"/>
+      <c r="K22" s="16"/>
+      <c r="L22" s="16"/>
+      <c r="M22" s="16"/>
+    </row>
+    <row r="23" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="15"/>
+      <c r="B23" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" s="37">
+        <v>4</v>
+      </c>
+      <c r="E23" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="20">
+        <v>27000</v>
+      </c>
+      <c r="G23" s="20">
+        <v>1000</v>
+      </c>
+      <c r="H23" s="98">
+        <f t="shared" ref="H23:H24" si="5">SUM(F23+G23)*D23</f>
+        <v>112000</v>
+      </c>
+      <c r="I23" s="102">
+        <v>4</v>
+      </c>
+      <c r="J23" s="98">
+        <f t="shared" ref="J23:J24" si="6">I23*F23</f>
+        <v>108000</v>
+      </c>
+      <c r="K23" s="102">
+        <f t="shared" ref="K23:K24" si="7">I23</f>
+        <v>4</v>
+      </c>
+      <c r="L23" s="98">
+        <f t="shared" ref="L23:L24" si="8">K23*G23</f>
+        <v>4000</v>
+      </c>
+      <c r="M23" s="98">
+        <f t="shared" ref="M23:M24" si="9">L23+J23</f>
+        <v>112000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="15"/>
+      <c r="B24" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24" s="37">
+        <v>4</v>
+      </c>
+      <c r="E24" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="20">
+        <v>17000</v>
+      </c>
+      <c r="G24" s="20">
+        <v>1000</v>
+      </c>
+      <c r="H24" s="98">
+        <f t="shared" si="5"/>
+        <v>72000</v>
+      </c>
+      <c r="I24" s="102">
+        <v>4</v>
+      </c>
+      <c r="J24" s="98">
+        <f t="shared" si="6"/>
+        <v>68000</v>
+      </c>
+      <c r="K24" s="102">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="L24" s="98">
+        <f t="shared" si="8"/>
+        <v>4000</v>
+      </c>
+      <c r="M24" s="98">
+        <f t="shared" si="9"/>
+        <v>72000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" s="17" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="35"/>
+      <c r="B25" s="229" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="189"/>
-      <c r="D18" s="37"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="103"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="103"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="103"/>
-      <c r="M18" s="104"/>
-    </row>
-    <row r="19" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="186"/>
-      <c r="B19" s="178" t="s">
+      <c r="C25" s="230"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="103"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="103"/>
+      <c r="J25" s="103"/>
+      <c r="K25" s="103"/>
+      <c r="L25" s="103"/>
+      <c r="M25" s="104"/>
+    </row>
+    <row r="26" spans="1:13" s="127" customFormat="1" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="112">
+        <v>3</v>
+      </c>
+      <c r="B26" s="203" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="204"/>
+      <c r="D26" s="112"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="134"/>
+      <c r="L26" s="134"/>
+      <c r="M26" s="134"/>
+    </row>
+    <row r="27" spans="1:13" s="129" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="15"/>
+      <c r="B27" s="205" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="206"/>
+      <c r="D27" s="16">
+        <v>1</v>
+      </c>
+      <c r="E27" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="F27" s="136">
+        <v>62215.625</v>
+      </c>
+      <c r="G27" s="136">
+        <v>10000</v>
+      </c>
+      <c r="H27" s="98">
+        <f t="shared" ref="H27" si="10">SUM(F27+G27)*D27</f>
+        <v>72215.625</v>
+      </c>
+      <c r="I27" s="102">
+        <v>1</v>
+      </c>
+      <c r="J27" s="98">
+        <f t="shared" ref="J27" si="11">I27*F27</f>
+        <v>62215.625</v>
+      </c>
+      <c r="K27" s="102">
+        <f t="shared" ref="K27" si="12">I27</f>
+        <v>1</v>
+      </c>
+      <c r="L27" s="98">
+        <f t="shared" ref="L27" si="13">K27*G27</f>
+        <v>10000</v>
+      </c>
+      <c r="M27" s="98">
+        <f t="shared" ref="M27" si="14">L27+J27</f>
+        <v>72215.625</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="227"/>
+      <c r="B28" s="219" t="s">
         <v>65</v>
       </c>
-      <c r="C19" s="179"/>
-      <c r="D19" s="186"/>
-      <c r="E19" s="182"/>
-      <c r="F19" s="182"/>
-      <c r="G19" s="182"/>
-      <c r="H19" s="32"/>
-      <c r="I19" s="32"/>
-      <c r="J19" s="32"/>
-      <c r="K19" s="32"/>
-      <c r="L19" s="32"/>
-      <c r="M19" s="182"/>
-    </row>
-    <row r="20" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="187"/>
-      <c r="B20" s="172"/>
-      <c r="C20" s="173"/>
-      <c r="D20" s="187"/>
-      <c r="E20" s="183"/>
-      <c r="F20" s="183"/>
-      <c r="G20" s="183"/>
-      <c r="H20" s="33"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="33"/>
-      <c r="K20" s="33"/>
-      <c r="L20" s="33"/>
-      <c r="M20" s="183"/>
-    </row>
-    <row r="21" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42">
-        <v>3</v>
-      </c>
-      <c r="B21" s="184" t="s">
+      <c r="C28" s="220"/>
+      <c r="D28" s="227"/>
+      <c r="E28" s="223"/>
+      <c r="F28" s="223"/>
+      <c r="G28" s="223"/>
+      <c r="H28" s="32"/>
+      <c r="I28" s="32"/>
+      <c r="J28" s="32"/>
+      <c r="K28" s="32"/>
+      <c r="L28" s="32"/>
+      <c r="M28" s="223"/>
+    </row>
+    <row r="29" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="228"/>
+      <c r="B29" s="213"/>
+      <c r="C29" s="214"/>
+      <c r="D29" s="228"/>
+      <c r="E29" s="224"/>
+      <c r="F29" s="224"/>
+      <c r="G29" s="224"/>
+      <c r="H29" s="33"/>
+      <c r="I29" s="33"/>
+      <c r="J29" s="33"/>
+      <c r="K29" s="33"/>
+      <c r="L29" s="33"/>
+      <c r="M29" s="224"/>
+    </row>
+    <row r="30" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="42">
+        <v>4</v>
+      </c>
+      <c r="B30" s="225" t="s">
         <v>59</v>
       </c>
-      <c r="C21" s="185"/>
-      <c r="D21" s="42"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="33"/>
-      <c r="G21" s="33"/>
-      <c r="H21" s="33"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="33"/>
-      <c r="K21" s="33"/>
-      <c r="L21" s="33"/>
-      <c r="M21" s="33"/>
-    </row>
-    <row r="22" spans="1:13" s="17" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="174" t="s">
+      <c r="C30" s="226"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+    </row>
+    <row r="31" spans="1:13" s="17" customFormat="1" ht="58.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="35"/>
+      <c r="B31" s="215" t="s">
         <v>60</v>
       </c>
-      <c r="C22" s="175"/>
-      <c r="D22" s="37">
+      <c r="C31" s="216"/>
+      <c r="D31" s="37">
         <v>1</v>
       </c>
-      <c r="E22" s="35" t="s">
+      <c r="E31" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="F22" s="103">
+      <c r="F31" s="103">
         <v>20000</v>
       </c>
-      <c r="G22" s="103">
+      <c r="G31" s="103">
         <v>10000</v>
       </c>
-      <c r="H22" s="105">
-        <f>SUM(F22+G22)*D22</f>
+      <c r="H31" s="105">
+        <f>SUM(F31+G31)*D31</f>
         <v>30000</v>
       </c>
-      <c r="I22" s="106">
+      <c r="I31" s="106">
         <v>1</v>
       </c>
-      <c r="J22" s="105">
-        <f>I22*F22</f>
+      <c r="J31" s="105">
+        <f>I31*F31</f>
         <v>20000</v>
       </c>
-      <c r="K22" s="106">
-        <f>I22</f>
+      <c r="K31" s="106">
+        <f>I31</f>
         <v>1</v>
       </c>
-      <c r="L22" s="105">
-        <f>K22*G22</f>
+      <c r="L31" s="105">
+        <f>K31*G31</f>
         <v>10000</v>
       </c>
-      <c r="M22" s="105">
-        <f>L22+J22</f>
+      <c r="M31" s="105">
+        <f>L31+J31</f>
         <v>30000</v>
       </c>
     </row>
-    <row r="23" spans="1:13" ht="14.25" x14ac:dyDescent="0.3">
-      <c r="A23" s="41"/>
-      <c r="B23" s="178"/>
-      <c r="C23" s="179"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="32"/>
-      <c r="L23" s="32"/>
-      <c r="M23" s="32"/>
-    </row>
-    <row r="24" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42">
+    <row r="32" spans="1:13" ht="14.25" x14ac:dyDescent="0.3">
+      <c r="A32" s="41"/>
+      <c r="B32" s="219"/>
+      <c r="C32" s="220"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="32"/>
+      <c r="F32" s="32"/>
+      <c r="G32" s="32"/>
+      <c r="H32" s="32"/>
+      <c r="I32" s="32"/>
+      <c r="J32" s="32"/>
+      <c r="K32" s="32"/>
+      <c r="L32" s="32"/>
+      <c r="M32" s="32"/>
+    </row>
+    <row r="33" spans="1:13" ht="17.649999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="42">
+        <v>5</v>
+      </c>
+      <c r="B33" s="213" t="s">
+        <v>61</v>
+      </c>
+      <c r="C33" s="214"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
+      <c r="K33" s="33"/>
+      <c r="L33" s="33"/>
+      <c r="M33" s="33"/>
+    </row>
+    <row r="34" spans="1:13" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="35"/>
+      <c r="B34" s="215" t="s">
+        <v>11</v>
+      </c>
+      <c r="C34" s="216"/>
+      <c r="D34" s="37">
+        <v>1</v>
+      </c>
+      <c r="E34" s="35" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="172" t="s">
-        <v>61</v>
-      </c>
-      <c r="C24" s="173"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="33"/>
-      <c r="K24" s="33"/>
-      <c r="L24" s="33"/>
-      <c r="M24" s="33"/>
-    </row>
-    <row r="25" spans="1:13" s="17" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="174" t="s">
-        <v>11</v>
-      </c>
-      <c r="C25" s="175"/>
-      <c r="D25" s="37">
+      <c r="F34" s="103">
+        <v>10000</v>
+      </c>
+      <c r="G34" s="103">
+        <v>10000</v>
+      </c>
+      <c r="H34" s="105">
+        <f>SUM(F34+G34)*D34</f>
+        <v>20000</v>
+      </c>
+      <c r="I34" s="106">
         <v>1</v>
       </c>
-      <c r="E25" s="35" t="s">
+      <c r="J34" s="105">
+        <f>I34*F34</f>
+        <v>10000</v>
+      </c>
+      <c r="K34" s="106">
+        <f>I34</f>
+        <v>1</v>
+      </c>
+      <c r="L34" s="105">
+        <f>K34*G34</f>
+        <v>10000</v>
+      </c>
+      <c r="M34" s="105">
+        <f>L34+J34</f>
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="34"/>
+      <c r="B35" s="221"/>
+      <c r="C35" s="222"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="107"/>
+      <c r="G35" s="107"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="107"/>
+      <c r="J35" s="107"/>
+      <c r="K35" s="107"/>
+      <c r="L35" s="107"/>
+      <c r="M35" s="107"/>
+    </row>
+    <row r="36" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="109">
+        <v>6</v>
+      </c>
+      <c r="B36" s="213" t="s">
+        <v>24</v>
+      </c>
+      <c r="C36" s="214"/>
+      <c r="D36" s="36"/>
+      <c r="E36" s="36"/>
+      <c r="F36" s="110"/>
+      <c r="G36" s="110"/>
+      <c r="H36" s="110"/>
+      <c r="I36" s="110"/>
+      <c r="J36" s="110"/>
+      <c r="K36" s="110"/>
+      <c r="L36" s="110"/>
+      <c r="M36" s="110"/>
+    </row>
+    <row r="37" spans="1:13" s="108" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="111"/>
+      <c r="B37" s="215" t="s">
+        <v>62</v>
+      </c>
+      <c r="C37" s="216"/>
+      <c r="D37" s="37">
+        <v>1</v>
+      </c>
+      <c r="E37" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="F25" s="103">
-        <v>10000</v>
-      </c>
-      <c r="G25" s="103">
-        <v>10000</v>
-      </c>
-      <c r="H25" s="105">
-        <f>SUM(F25+G25)*D25</f>
-        <v>20000</v>
-      </c>
-      <c r="I25" s="106">
+      <c r="F37" s="103">
+        <v>0</v>
+      </c>
+      <c r="G37" s="103">
+        <v>25000</v>
+      </c>
+      <c r="H37" s="105">
+        <f>SUM(F37+G37)*D37</f>
+        <v>25000</v>
+      </c>
+      <c r="I37" s="106">
         <v>1</v>
       </c>
-      <c r="J25" s="105">
-        <f>I25*F25</f>
-        <v>10000</v>
-      </c>
-      <c r="K25" s="106">
-        <f>I25</f>
+      <c r="J37" s="105">
+        <f>I37*F37</f>
+        <v>0</v>
+      </c>
+      <c r="K37" s="106">
+        <f>I37</f>
         <v>1</v>
       </c>
-      <c r="L25" s="105">
-        <f>K25*G25</f>
-        <v>10000</v>
-      </c>
-      <c r="M25" s="105">
-        <f>L25+J25</f>
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" s="108" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="180"/>
-      <c r="C26" s="181"/>
-      <c r="D26" s="38"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="107"/>
-      <c r="G26" s="107"/>
-      <c r="H26" s="107"/>
-      <c r="I26" s="107"/>
-      <c r="J26" s="107"/>
-      <c r="K26" s="107"/>
-      <c r="L26" s="107"/>
-      <c r="M26" s="107"/>
-    </row>
-    <row r="27" spans="1:13" s="17" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="109">
-        <v>5</v>
-      </c>
-      <c r="B27" s="172" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="173"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="110"/>
-      <c r="G27" s="110"/>
-      <c r="H27" s="110"/>
-      <c r="I27" s="110"/>
-      <c r="J27" s="110"/>
-      <c r="K27" s="110"/>
-      <c r="L27" s="110"/>
-      <c r="M27" s="110"/>
-    </row>
-    <row r="28" spans="1:13" s="108" customFormat="1" ht="80.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="111"/>
-      <c r="B28" s="174" t="s">
-        <v>62</v>
-      </c>
-      <c r="C28" s="175"/>
-      <c r="D28" s="37">
-        <v>1</v>
-      </c>
-      <c r="E28" s="37" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" s="103">
-        <v>0</v>
-      </c>
-      <c r="G28" s="103">
+      <c r="L37" s="105">
+        <f>K37*G37</f>
         <v>25000</v>
       </c>
-      <c r="H28" s="105">
-        <f>SUM(F28+G28)*D28</f>
+      <c r="M37" s="105">
+        <f>L37+J37</f>
         <v>25000</v>
       </c>
-      <c r="I28" s="106">
-        <v>1</v>
-      </c>
-      <c r="J28" s="105">
-        <f>I28*F28</f>
-        <v>0</v>
-      </c>
-      <c r="K28" s="106">
-        <f>I28</f>
-        <v>1</v>
-      </c>
-      <c r="L28" s="105">
-        <f>K28*G28</f>
-        <v>25000</v>
-      </c>
-      <c r="M28" s="105">
-        <f>L28+J28</f>
-        <v>25000</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" s="17" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="18"/>
-      <c r="B29" s="176" t="s">
+    </row>
+    <row r="38" spans="1:13" s="17" customFormat="1" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="217" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="177"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="35"/>
-      <c r="F29" s="203"/>
-      <c r="G29" s="203"/>
-      <c r="H29" s="218">
-        <f>SUM(H10:H28)</f>
-        <v>267000</v>
-      </c>
-      <c r="I29" s="219"/>
-      <c r="J29" s="218">
-        <f>SUM(J10:J28)</f>
-        <v>58000</v>
-      </c>
-      <c r="K29" s="219"/>
-      <c r="L29" s="218">
-        <f>SUM(L10:L28)</f>
-        <v>49000</v>
-      </c>
-      <c r="M29" s="218">
-        <f>SUM(M10:M28)</f>
-        <v>107000</v>
+      <c r="C38" s="218"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="35"/>
+      <c r="F38" s="114"/>
+      <c r="G38" s="114"/>
+      <c r="H38" s="123">
+        <f>SUM(H9:H37)</f>
+        <v>368178.125</v>
+      </c>
+      <c r="I38" s="124"/>
+      <c r="J38" s="123">
+        <f>SUM(J9:J37)</f>
+        <v>319798.4375</v>
+      </c>
+      <c r="K38" s="124"/>
+      <c r="L38" s="123">
+        <f>SUM(L9:L37)</f>
+        <v>76000</v>
+      </c>
+      <c r="M38" s="123">
+        <f>SUM(M9:M37)</f>
+        <v>395798.4375</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="48">
+  <mergeCells count="67">
     <mergeCell ref="B7:C7"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="B9:C9"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="E13:E14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="G13:G14"/>
-    <mergeCell ref="M13:M14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="G19:G20"/>
-    <mergeCell ref="M19:M20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="E19:E20"/>
-    <mergeCell ref="F19:F20"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="M15:M16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="K15:K16"/>
+    <mergeCell ref="L15:L16"/>
+    <mergeCell ref="E15:E16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:C35"/>
     <mergeCell ref="A4:H4"/>
     <mergeCell ref="I4:M4"/>
     <mergeCell ref="A5:A6"/>
@@ -4014,6 +4431,21 @@
     <mergeCell ref="I5:J5"/>
     <mergeCell ref="K5:L5"/>
     <mergeCell ref="M5:M6"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="B22:C22"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.24" top="0.75" bottom="0.37" header="0.53" footer="0.17"/>
   <pageSetup paperSize="9" scale="75" fitToHeight="14" orientation="landscape" r:id="rId1"/>
